--- a/datasets/1. Original Dataset/people.xlsx
+++ b/datasets/1. Original Dataset/people.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Soy Henry\PWC\datasets\1. Original Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soy Henry\PWC\datasets\1. Original Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80BA20F3-FEF1-4487-AF4D-33F1DD4FE563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E5D084E-399E-40ED-B253-FE2942C6065B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">people!$A$1:$K$376</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -2360,7 +2359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2914,7 +2913,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7627309509406481E-3"/>
+          <c:y val="4.2862651418252955E-2"/>
+          <c:w val="0.97854304144595816"/>
+          <c:h val="0.942875695550765"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2948,18 +2957,1125 @@
               <c:f>people!$F$2:$F$376</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="61">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,7 +4085,7 @@
               <c:f>people!$H$2:$H$376</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="375"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -2977,10 +4093,1123 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,7 +5217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1A4-4A5D-9AAB-ABF08007558B}"/>
+              <c16:uniqueId val="{00000000-6979-4593-AFA3-D2EE4BFA2EEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3058,7 +5287,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1758191792"/>
@@ -3120,7 +5349,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1758191312"/>
@@ -3137,6 +5366,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3144,7 +5374,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3168,7 +5397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3739,16 +5968,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885824</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>230281</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3759,7 +5988,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4072,12 +6303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B797DE3-AE1A-4A0E-BF06-4159CC36DBB2}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,7 +6322,7 @@
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.42578125" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4127,7 +6357,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4163,7 +6393,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4199,7 +6429,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4235,7 +6465,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4271,7 +6501,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4307,7 +6537,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4343,7 +6573,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4379,7 +6609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4415,7 +6645,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4451,7 +6681,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4487,7 +6717,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4523,7 +6753,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4559,7 +6789,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4595,7 +6825,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4631,7 +6861,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4667,7 +6897,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4703,7 +6933,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4739,7 +6969,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4775,7 +7005,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4811,7 +7041,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4847,7 +7077,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4883,7 +7113,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4919,7 +7149,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4955,7 +7185,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4991,7 +7221,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5027,7 +7257,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5063,7 +7293,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5099,7 +7329,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5135,7 +7365,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5171,7 +7401,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5207,7 +7437,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5243,7 +7473,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5279,7 +7509,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5315,7 +7545,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5351,7 +7581,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5387,7 +7617,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5423,7 +7653,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5459,7 +7689,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5495,7 +7725,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5531,7 +7761,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5567,7 +7797,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5603,7 +7833,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5639,7 +7869,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5675,7 +7905,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5711,7 +7941,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5747,7 +7977,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5783,7 +8013,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5819,7 +8049,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5855,7 +8085,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5891,7 +8121,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5927,7 +8157,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5963,7 +8193,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5996,7 +8226,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6032,7 +8262,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6068,7 +8298,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6104,7 +8334,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6140,7 +8370,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6176,7 +8406,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6212,7 +8442,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6248,7 +8478,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6317,7 +8547,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6353,7 +8583,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6389,7 +8619,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6425,7 +8655,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6461,7 +8691,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6497,7 +8727,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6533,7 +8763,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6569,7 +8799,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6605,7 +8835,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6641,7 +8871,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6677,7 +8907,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6713,7 +8943,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6749,7 +8979,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6785,7 +9015,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6821,7 +9051,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6857,7 +9087,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6893,7 +9123,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6929,7 +9159,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6965,7 +9195,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7001,7 +9231,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7037,7 +9267,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7073,7 +9303,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7109,7 +9339,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7145,7 +9375,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7181,7 +9411,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7217,7 +9447,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7253,7 +9483,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7289,7 +9519,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7325,7 +9555,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7361,7 +9591,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7397,7 +9627,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7433,7 +9663,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7469,7 +9699,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7505,7 +9735,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7541,7 +9771,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7613,7 +9843,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7649,7 +9879,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7721,7 +9951,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7757,7 +9987,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7793,7 +10023,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7829,7 +10059,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7865,7 +10095,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7901,7 +10131,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7937,7 +10167,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7973,7 +10203,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8009,7 +10239,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8045,7 +10275,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8081,7 +10311,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8117,7 +10347,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8186,7 +10416,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8222,7 +10452,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8258,7 +10488,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8294,7 +10524,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8330,7 +10560,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8366,7 +10596,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8402,7 +10632,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8438,7 +10668,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8474,7 +10704,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8510,7 +10740,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8546,7 +10776,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8582,7 +10812,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8618,7 +10848,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8651,7 +10881,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8687,7 +10917,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8723,7 +10953,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8759,7 +10989,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8795,7 +11025,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8831,7 +11061,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8867,7 +11097,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8903,7 +11133,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8939,7 +11169,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8975,7 +11205,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -9011,7 +11241,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -9047,7 +11277,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9083,7 +11313,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9119,7 +11349,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9152,7 +11382,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9188,7 +11418,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9224,7 +11454,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9260,7 +11490,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9296,7 +11526,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9332,7 +11562,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9368,7 +11598,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9404,7 +11634,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9440,7 +11670,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9476,7 +11706,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9512,7 +11742,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9548,7 +11778,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9584,7 +11814,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9620,7 +11850,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9656,7 +11886,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9692,7 +11922,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9728,7 +11958,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9764,7 +11994,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9800,7 +12030,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9836,7 +12066,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9872,7 +12102,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9908,7 +12138,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9944,7 +12174,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9980,7 +12210,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10016,7 +12246,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10052,7 +12282,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10088,7 +12318,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10124,7 +12354,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10160,7 +12390,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10196,7 +12426,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10232,7 +12462,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10268,7 +12498,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10304,7 +12534,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10325,7 +12555,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10361,7 +12591,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10397,7 +12627,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10433,7 +12663,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10469,7 +12699,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10502,7 +12732,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10538,7 +12768,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10574,7 +12804,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10610,7 +12840,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10646,7 +12876,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -10682,7 +12912,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -10718,7 +12948,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -10754,7 +12984,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -10790,7 +13020,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -10826,7 +13056,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -10862,7 +13092,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -10898,7 +13128,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -10934,7 +13164,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -10970,7 +13200,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -11006,7 +13236,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -11042,7 +13272,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -11078,7 +13308,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -11114,7 +13344,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -11150,7 +13380,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -11186,7 +13416,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -11222,7 +13452,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -11258,7 +13488,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -11294,7 +13524,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -11330,7 +13560,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -11366,7 +13596,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -11402,7 +13632,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -11438,7 +13668,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -11474,7 +13704,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -11510,7 +13740,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11546,7 +13776,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11582,7 +13812,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -11618,7 +13848,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -11654,7 +13884,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -11690,7 +13920,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -11726,7 +13956,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -11762,7 +13992,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -11798,7 +14028,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -11834,7 +14064,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -11870,7 +14100,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -11906,7 +14136,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -11942,7 +14172,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -11978,7 +14208,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -12011,7 +14241,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -12047,7 +14277,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -12080,7 +14310,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -12116,7 +14346,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -12152,7 +14382,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -12188,7 +14418,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -12221,7 +14451,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -12257,7 +14487,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -12293,7 +14523,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -12329,7 +14559,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -12365,7 +14595,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -12401,7 +14631,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -12437,7 +14667,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -12473,7 +14703,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -12509,7 +14739,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -12545,7 +14775,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -12578,7 +14808,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -12614,7 +14844,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -12650,7 +14880,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -12686,7 +14916,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -12722,7 +14952,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -12758,7 +14988,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -12794,7 +15024,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -12830,7 +15060,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -12866,7 +15096,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -12902,7 +15132,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -12938,7 +15168,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -12974,7 +15204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -13010,7 +15240,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -13046,7 +15276,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -13082,7 +15312,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -13118,7 +15348,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -13154,7 +15384,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -13190,7 +15420,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -13226,7 +15456,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -13262,7 +15492,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -13298,7 +15528,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -13334,7 +15564,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -13370,7 +15600,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -13406,7 +15636,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -13442,7 +15672,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -13463,7 +15693,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -13496,7 +15726,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -13532,7 +15762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -13568,7 +15798,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -13604,7 +15834,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -13640,7 +15870,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -13676,7 +15906,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -13712,7 +15942,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -13748,7 +15978,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -13784,7 +16014,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -13820,7 +16050,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -13856,7 +16086,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -13892,7 +16122,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -13928,7 +16158,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -13964,7 +16194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -14000,7 +16230,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -14036,7 +16266,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -14072,7 +16302,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -14108,7 +16338,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -14144,7 +16374,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -14180,7 +16410,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -14216,7 +16446,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -14252,7 +16482,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -14288,7 +16518,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -14324,7 +16554,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -14360,7 +16590,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -14396,7 +16626,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -14429,7 +16659,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -14465,7 +16695,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -14501,7 +16731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -14537,7 +16767,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -14573,7 +16803,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -14609,7 +16839,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -14645,7 +16875,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -14681,7 +16911,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -14717,7 +16947,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -14753,7 +16983,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -14789,7 +17019,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -14825,7 +17055,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -14861,7 +17091,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -14897,7 +17127,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -14933,7 +17163,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -14969,7 +17199,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -15005,7 +17235,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -15041,7 +17271,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -15077,7 +17307,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -15113,7 +17343,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -15149,7 +17379,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -15185,7 +17415,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -15221,7 +17451,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -15257,7 +17487,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -15293,7 +17523,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -15329,7 +17559,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -15365,7 +17595,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -15401,7 +17631,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -15434,7 +17664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -15470,7 +17700,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -15506,7 +17736,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -15542,7 +17772,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -15578,7 +17808,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -15614,7 +17844,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -15650,7 +17880,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -15686,7 +17916,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -15722,7 +17952,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -15758,7 +17988,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -15794,7 +18024,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -15830,7 +18060,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -15866,7 +18096,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -15902,7 +18132,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -15938,7 +18168,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -15974,7 +18204,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -16010,7 +18240,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -16043,7 +18273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -16079,7 +18309,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -16115,7 +18345,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -16151,7 +18381,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -16187,7 +18417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -16223,7 +18453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -16259,7 +18489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -16295,7 +18525,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -16331,7 +18561,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -16367,7 +18597,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -16403,7 +18633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -16439,7 +18669,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -16475,7 +18705,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -16511,7 +18741,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -16547,7 +18777,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -16583,7 +18813,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -16619,7 +18849,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -16655,7 +18885,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -16691,7 +18921,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -16727,7 +18957,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -16763,7 +18993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -16799,7 +19029,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -16835,7 +19065,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -16871,7 +19101,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -16907,7 +19137,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -16943,7 +19173,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -16979,7 +19209,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -17015,7 +19245,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -17051,7 +19281,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -17087,7 +19317,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -17123,7 +19353,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -17159,7 +19389,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -17195,7 +19425,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -17231,7 +19461,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -17264,7 +19494,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -17300,7 +19530,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -17336,7 +19566,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -17372,7 +19602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -17408,7 +19638,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -17444,7 +19674,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -17480,7 +19710,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -17516,7 +19746,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -17553,30 +19783,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K376" xr:uid="{2B797DE3-AE1A-4A0E-BF06-4159CC36DBB2}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="20"/>
-        <filter val="22"/>
-        <filter val="23"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Other"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K376"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E946D75-3F4C-4998-A4B6-46AC34974410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -17630,5 +19846,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>